--- a/polonius.next/Book1.xlsx
+++ b/polonius.next/Book1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12150"/>
+    <workbookView windowWidth="27795" windowHeight="13260"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -40,10 +40,7 @@
     <t>a new location</t>
   </si>
   <si>
-    <t xml:space="preserve">use of </t>
-  </si>
-  <si>
-    <t>use of</t>
+    <t>var b live at</t>
   </si>
   <si>
     <t>mid</t>
@@ -52,6 +49,9 @@
     <t>none</t>
   </si>
   <si>
+    <t>var a defined at</t>
+  </si>
+  <si>
     <t>copy2</t>
   </si>
   <si>
@@ -64,7 +64,8 @@
     <t>read-1 b</t>
   </si>
   <si>
-    <t>clear_origin o_a</t>
+    <t>clear_origin o_a
+var b live at</t>
   </si>
   <si>
     <t xml:space="preserve">push SharedRO(a)
@@ -86,7 +87,8 @@
     <t>pop Unique(b)</t>
   </si>
   <si>
-    <t>invalidate all loan of b</t>
+    <t>invalidate all loan of b
+var b live at</t>
   </si>
   <si>
     <t>push Unique(a)</t>
@@ -101,7 +103,8 @@
     <t xml:space="preserve"> u8 -&gt; &amp;u8</t>
   </si>
   <si>
-    <t>invalidate all mut loan of b</t>
+    <t>invalidate all mut loan of b
+var b live at</t>
   </si>
   <si>
     <t>loan_issued_at L o_a</t>
@@ -120,7 +123,8 @@
   </si>
   <si>
     <t>clear_origin o_a
-invalidate all loan of b</t>
+invalidate all loan of b
+var b live at</t>
   </si>
   <si>
     <t>push  Unique(a)
@@ -143,12 +147,13 @@
     <t>&amp;mut u8 -&gt; &amp;u8</t>
   </si>
   <si>
-    <t>use of 
+    <t>var b live at
 clear mut loan of *b</t>
   </si>
   <si>
     <t>clear_origin o_a
-clear mut loan of *b</t>
+clear mut loan of *b
+var b live at</t>
   </si>
   <si>
     <t>reborrow_mut</t>
@@ -160,12 +165,13 @@
     <t>a = &amp;mut * b</t>
   </si>
   <si>
-    <t>use of 
+    <t>var b live at
 clear all loan of *b</t>
   </si>
   <si>
     <t>clear_origin o_a
-clear all loan of *b</t>
+clear all loan of *b
+var b live at</t>
   </si>
 </sst>
 </file>
@@ -173,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,6 +193,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -201,24 +230,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,100 +308,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,61 +555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,163 +581,213 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +799,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1121,14 +1130,14 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.9833333333333" customWidth="1"/>
-    <col min="2" max="2" width="25.5166666666667" customWidth="1"/>
+    <col min="2" max="2" width="22.2416666666667" customWidth="1"/>
     <col min="3" max="3" width="11.8083333333333" customWidth="1"/>
     <col min="5" max="5" width="17.925" customWidth="1"/>
     <col min="6" max="6" width="22.5833333333333" customWidth="1"/>
@@ -1162,11 +1171,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>9</v>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1174,10 +1183,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1186,7 +1195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1202,10 +1211,10 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1214,9 +1223,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -1226,7 +1235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="28.5" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1242,10 +1251,10 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1254,19 +1263,19 @@
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="28.5" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -1282,10 +1291,10 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1294,9 +1303,9 @@
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
@@ -1322,10 +1331,10 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1334,9 +1343,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F11" t="s">
@@ -1346,7 +1355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" ht="28.5" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1362,10 +1371,10 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1374,19 +1383,19 @@
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:7">
+    <row r="14" ht="42.75" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -1402,10 +1411,10 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1414,19 +1423,19 @@
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:7">
+    <row r="16" ht="42.75" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1442,10 +1451,10 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1454,15 +1463,15 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>38</v>
       </c>
     </row>

--- a/polonius.next/Book1.xlsx
+++ b/polonius.next/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>stacked borrow</t>
   </si>
@@ -25,13 +25,16 @@
     <t>polonius.next</t>
   </si>
   <si>
+    <t>nll?</t>
+  </si>
+  <si>
     <t>copy1</t>
   </si>
   <si>
     <t>u8 -&gt; u8</t>
   </si>
   <si>
-    <t xml:space="preserve">a =  b </t>
+    <t xml:space="preserve">a = b </t>
   </si>
   <si>
     <t>start</t>
@@ -58,7 +61,7 @@
     <t>&amp;u8 -&gt; &amp;u8</t>
   </si>
   <si>
-    <t>a = &amp;b</t>
+    <t>a = b</t>
   </si>
   <si>
     <t>read-1 b</t>
@@ -81,9 +84,6 @@
     <t>(&amp;mut u8)  -&gt; (&amp;mut u8)</t>
   </si>
   <si>
-    <t>a = b</t>
-  </si>
-  <si>
     <t>pop Unique(b)</t>
   </si>
   <si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t xml:space="preserve"> u8 -&gt; &amp;u8</t>
+  </si>
+  <si>
+    <t>a = &amp;b</t>
   </si>
   <si>
     <t>invalidate all mut loan of b
@@ -193,7 +196,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -201,45 +317,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,90 +339,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -346,13 +349,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,168 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,21 +540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,21 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -586,30 +559,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,157 +586,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,9 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1128,13 +1128,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.9833333333333" customWidth="1"/>
     <col min="2" max="2" width="22.2416666666667" customWidth="1"/>
@@ -1144,7 +1144,7 @@
     <col min="7" max="7" width="22.9333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="5:7">
+    <row r="1" ht="26" customHeight="1" spans="5:8">
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1154,28 +1154,31 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1183,39 +1186,39 @@
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -1223,30 +1226,30 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
@@ -1263,15 +1266,15 @@
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1283,19 +1286,19 @@
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -1303,39 +1306,39 @@
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" ht="47" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>34</v>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -1343,39 +1346,39 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="28.5" spans="1:7">
@@ -1383,39 +1386,39 @@
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:7">
@@ -1423,39 +1426,39 @@
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="42.75" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -1463,16 +1466,16 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/polonius.next/Book1.xlsx
+++ b/polonius.next/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>stacked borrow</t>
   </si>
@@ -89,45 +89,50 @@
   <si>
     <t>invalidate all loan of b
 var b live at</t>
-  </si>
-  <si>
-    <t>push Unique(a)</t>
-  </si>
-  <si>
-    <t>subst o_b o_a</t>
-  </si>
-  <si>
-    <t>borrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> u8 -&gt; &amp;u8</t>
-  </si>
-  <si>
-    <t>a = &amp;b</t>
-  </si>
-  <si>
-    <t>invalidate all mut loan of b
-var b live at</t>
-  </si>
-  <si>
-    <t>loan_issued_at L o_a</t>
-  </si>
-  <si>
-    <t>borrow_mut</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> u8 -&gt; (&amp;mut u8) </t>
-  </si>
-  <si>
-    <t>a = &amp;mut b</t>
-  </si>
-  <si>
-    <t>use-1 b</t>
   </si>
   <si>
     <t>clear_origin o_a
 invalidate all loan of b
 var b live at</t>
+  </si>
+  <si>
+    <t>push Unique(a)</t>
+  </si>
+  <si>
+    <t>subst o_b o_a</t>
+  </si>
+  <si>
+    <t>borrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> u8 -&gt; &amp;u8</t>
+  </si>
+  <si>
+    <t>a = &amp;b</t>
+  </si>
+  <si>
+    <t>invalidate all mut loan of b
+var b live at</t>
+  </si>
+  <si>
+    <t>clear_origin o_a
+invalidate all mut loan of b
+var b live at</t>
+  </si>
+  <si>
+    <t>loan_issued_at L o_a</t>
+  </si>
+  <si>
+    <t>borrow_mut</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> u8 -&gt; (&amp;mut u8) </t>
+  </si>
+  <si>
+    <t>a = &amp;mut b</t>
+  </si>
+  <si>
+    <t>use-1 b</t>
   </si>
   <si>
     <t>push  Unique(a)
@@ -182,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -196,23 +201,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,74 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -301,44 +344,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -349,67 +354,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,115 +516,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,31 +548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +593,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -617,17 +619,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,153 +636,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,7 +1136,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1238,7 +1243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:7">
+    <row r="6" ht="42.75" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1269,24 +1274,24 @@
         <v>10</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1295,10 +1300,10 @@
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -1312,33 +1317,33 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="47" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -1349,24 +1354,24 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1392,33 +1397,33 @@
         <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="28.5" spans="1:7">
@@ -1432,33 +1437,33 @@
         <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="42.75" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="28.5" spans="1:7">
@@ -1469,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/polonius.next/Book1.xlsx
+++ b/polonius.next/Book1.xlsx
@@ -187,10 +187,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -201,6 +201,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -208,6 +224,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -216,9 +254,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,119 +344,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -360,19 +360,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,37 +474,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,115 +522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,6 +545,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,17 +578,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,26 +628,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,162 +645,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1400,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:7">

--- a/polonius.next/Book1.xlsx
+++ b/polonius.next/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="13260"/>
+    <workbookView windowWidth="27795" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
   <si>
     <t>stacked borrow</t>
   </si>
@@ -22,12 +22,12 @@
     <t>polonius</t>
   </si>
   <si>
+    <t>polonius + clear_origin</t>
+  </si>
+  <si>
     <t>polonius.next</t>
   </si>
   <si>
-    <t>nll?</t>
-  </si>
-  <si>
     <t>copy1</t>
   </si>
   <si>
@@ -46,10 +46,10 @@
     <t>var b live at</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>mid</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>var a defined at</t>
@@ -69,6 +69,11 @@
   <si>
     <t>clear_origin o_a
 var b live at</t>
+  </si>
+  <si>
+    <t>access_origin 'b
+clear_origin 'a
+intro_subset 'b 'a</t>
   </si>
   <si>
     <t xml:space="preserve">push SharedRO(a)
@@ -96,6 +101,11 @@
 var b live at</t>
   </si>
   <si>
+    <t>access_origin 'b
+clear_origin 'a
+TODO</t>
+  </si>
+  <si>
     <t>push Unique(a)</t>
   </si>
   <si>
@@ -120,6 +130,12 @@
 var b live at</t>
   </si>
   <si>
+    <t xml:space="preserve">
+intro_subset L 'a
+clear_origin 'a
+</t>
+  </si>
+  <si>
     <t>loan_issued_at L o_a</t>
   </si>
   <si>
@@ -133,6 +149,11 @@
   </si>
   <si>
     <t>use-1 b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intro_subset L 'a
+clear_origin 'a
+</t>
   </si>
   <si>
     <t>push  Unique(a)
@@ -143,6 +164,12 @@
   </si>
   <si>
     <t>a = &amp;* b</t>
+  </si>
+  <si>
+    <t>access_origin 'b
+invalidate_origin L
+intro_subset L  'a
+intro_subset 'b L</t>
   </si>
   <si>
     <t>loan_issued_at L o_a
@@ -180,6 +207,13 @@
     <t>clear_origin o_a
 clear all loan of *b
 var b live at</t>
+  </si>
+  <si>
+    <t>access_origin 'b
+clear_origin 'a
+invalidate_origin L
+intro_subset L  'a
+intro_subset 'b L</t>
   </si>
 </sst>
 </file>
@@ -187,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -201,102 +235,118 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,26 +372,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -360,79 +394,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,97 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,17 +582,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +602,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,15 +674,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -650,148 +684,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,8 +1169,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1145,8 +1179,9 @@
     <col min="2" max="2" width="22.2416666666667" customWidth="1"/>
     <col min="3" max="3" width="11.8083333333333" customWidth="1"/>
     <col min="5" max="5" width="17.925" customWidth="1"/>
-    <col min="6" max="6" width="22.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.15" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.9333333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.075" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="5:8">
@@ -1159,11 +1194,11 @@
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1184,6 +1219,9 @@
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1191,10 +1229,10 @@
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1203,7 +1241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:7">
+    <row r="4" ht="28.5" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1224,6 +1262,9 @@
       </c>
       <c r="G4" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -1231,24 +1272,24 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="42.75" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="85.5" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
@@ -1257,13 +1298,16 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1271,27 +1315,27 @@
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="42.75" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="99.75" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1300,10 +1344,13 @@
         <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -1311,39 +1358,42 @@
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="47" customHeight="1" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="47" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -1351,27 +1401,27 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1385,106 +1435,115 @@
       <c r="G12" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:7">
+      <c r="H12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="71.25" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="42.75" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="85.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="28.5" spans="1:7">
+    <row r="15" ht="71.25" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="42.75" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" ht="71.25" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:7">
+        <v>54</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" ht="71.25" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="32">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1509,6 +1568,14 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/polonius.next/Book1.xlsx
+++ b/polonius.next/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>stacked borrow</t>
   </si>
@@ -133,6 +133,7 @@
     <t xml:space="preserve">
 intro_subset L 'a
 clear_origin 'a
+clear_origin 'L_b
 </t>
   </si>
   <si>
@@ -153,6 +154,7 @@
   <si>
     <t xml:space="preserve">intro_subset L 'a
 clear_origin 'a
+clear_origin 'L_b
 </t>
   </si>
   <si>
@@ -168,8 +170,10 @@
   <si>
     <t>access_origin 'b
 invalidate_origin L
-intro_subset L  'a
-intro_subset 'b L</t>
+intro_subset 'L_*b  'a
+intro_subset 'b 'L_*b
+clear_origin 'a
+clear_origin 'L_*b</t>
   </si>
   <si>
     <t>loan_issued_at L o_a
@@ -191,6 +195,14 @@
 var b live at</t>
   </si>
   <si>
+    <t>access_origin 'b
+invalidate_origin L
+intro_subset 'L_*b  'a
+intro_subset 'b       'L_*b
+clear_origin 'a
+clear_origin 'L_*b</t>
+  </si>
+  <si>
     <t>reborrow_mut</t>
   </si>
   <si>
@@ -211,9 +223,10 @@
   <si>
     <t>access_origin 'b
 clear_origin 'a
+clear_origin 'L_*b
 invalidate_origin L
-intro_subset L  'a
-intro_subset 'b L</t>
+intro_subset 'L_*b  'a
+intro_subset 'b        'L_*b</t>
   </si>
 </sst>
 </file>
@@ -221,9 +234,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -235,33 +248,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,16 +301,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -290,7 +370,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,82 +378,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,19 +407,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,151 +557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,6 +600,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,30 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -662,6 +675,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -670,162 +692,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,8 +1182,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1180,8 +1193,8 @@
     <col min="3" max="3" width="11.8083333333333" customWidth="1"/>
     <col min="5" max="5" width="17.925" customWidth="1"/>
     <col min="6" max="6" width="7.15" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="22.9333333333333" customWidth="1"/>
-    <col min="8" max="8" width="20.075" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.9333333333333" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="25.425" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="26" customHeight="1" spans="5:8">
@@ -1479,7 +1492,7 @@
         <v>49</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" ht="71.25" spans="1:7">
@@ -1501,13 +1514,13 @@
     </row>
     <row r="16" ht="71.25" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1516,13 +1529,13 @@
         <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="71.25" spans="1:7">

--- a/polonius.next/Book1.xlsx
+++ b/polonius.next/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>stacked borrow</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>polonius.next</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
   <si>
     <t>copy1</t>
@@ -228,15 +231,36 @@
 intro_subset 'L_*b  'a
 intro_subset 'b        'L_*b</t>
   </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>a : &amp;mut u8</t>
+  </si>
+  <si>
+    <t>*a = 1</t>
+  </si>
+  <si>
+    <t>use-1 a</t>
+  </si>
+  <si>
+    <t>access_origin 'a</t>
+  </si>
+  <si>
+    <t>没错，就一条fact</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -248,8 +272,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,82 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -346,51 +415,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -407,55 +431,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,13 +563,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,97 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,45 +624,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,15 +644,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -684,11 +695,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,152 +721,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -854,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1180,13 +1207,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.9833333333333" customWidth="1"/>
     <col min="2" max="2" width="22.2416666666667" customWidth="1"/>
@@ -1195,9 +1222,10 @@
     <col min="6" max="6" width="7.15" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22.9333333333333" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="25.425" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="5:8">
+    <row r="1" ht="26" customHeight="1" spans="5:9">
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1210,31 +1238,34 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1242,42 +1273,42 @@
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:7">
@@ -1285,42 +1316,42 @@
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="85.5" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1328,42 +1359,42 @@
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" ht="99.75" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="G8" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:7">
@@ -1371,42 +1402,42 @@
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="47" customHeight="1" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:7">
@@ -1414,42 +1445,42 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" ht="71.25" spans="1:7">
@@ -1457,42 +1488,42 @@
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="85.5" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="G14" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="71.25" spans="1:7">
@@ -1500,42 +1531,42 @@
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>45</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="71.25" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="G16" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="H16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="71.25" spans="1:7">
@@ -1543,20 +1574,55 @@
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" ht="51" customHeight="1" spans="1:9">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1565,6 +1631,7 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1573,6 +1640,7 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
@@ -1581,6 +1649,7 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H6:H7"/>
@@ -1589,6 +1658,8 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
